--- a/history.xlsx
+++ b/history.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\AI project\Lung Cancer Prediction Dataset\Lung Cancer Prediction Dataset\Lung-Cancer-Prediction-Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B61333-950F-4703-8E31-7411793C976C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218F0BE9-2CAE-4412-9996-97027F6DCF95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="results" sheetId="1" r:id="rId1"/>
+    <sheet name="Lung Cancer Prediction  4-Week " sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="114">
   <si>
     <t>Numerical Feature Statistics</t>
   </si>
@@ -208,13 +209,172 @@
   </si>
   <si>
     <t>Approximately 89.46% of the variance in lung cancer risk is explained by the model's features.</t>
+  </si>
+  <si>
+    <t>Week 1: Foundation &amp; Planning (11 Total Hours)</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Hours</t>
+  </si>
+  <si>
+    <t>Day 1</t>
+  </si>
+  <si>
+    <t>Environment &amp; Loading</t>
+  </si>
+  <si>
+    <t>Set up libraries (pandas, seaborn) and load the 5,000-row dataset.</t>
+  </si>
+  <si>
+    <t>Day 2</t>
+  </si>
+  <si>
+    <t>Data Cleaning</t>
+  </si>
+  <si>
+    <t>Create and apply mapping dictionaries for gender, income_level, and diet_quality.</t>
+  </si>
+  <si>
+    <t>Day 3</t>
+  </si>
+  <si>
+    <t>Numerical EDA</t>
+  </si>
+  <si>
+    <t>Generate and interpret box plots for all 12 numerical variables to find distributions.</t>
+  </si>
+  <si>
+    <t>Day 4</t>
+  </si>
+  <si>
+    <t>Categorical EDA</t>
+  </si>
+  <si>
+    <t>Create bar charts and frequency tables for 18 categorical variables.</t>
+  </si>
+  <si>
+    <t>Day 5</t>
+  </si>
+  <si>
+    <t>Association Study</t>
+  </si>
+  <si>
+    <t>Calculate Cramér’s V to find the strength of relationship between features like smoker and risk.</t>
+  </si>
+  <si>
+    <t>Week 2: Model Development (14 Total Hours)</t>
+  </si>
+  <si>
+    <t>Data Splitting</t>
+  </si>
+  <si>
+    <t>Implement an 80/20 stratified split to ensure balanced target distribution.</t>
+  </si>
+  <si>
+    <t>Baseline Setup</t>
+  </si>
+  <si>
+    <t>Initialize the model dictionary (XGBoost, LightGBM, CatBoost, DecisionTree, SVR).</t>
+  </si>
+  <si>
+    <t>Training Loop</t>
+  </si>
+  <si>
+    <t>Write the loop to fit all five models and generate predictions.</t>
+  </si>
+  <si>
+    <t>Metric Collection</t>
+  </si>
+  <si>
+    <t>Calculate RMSE, MSE, and MAE for every baseline model.</t>
+  </si>
+  <si>
+    <t>Benchmarking</t>
+  </si>
+  <si>
+    <t>Compare results and identify CatBoost as the "Winner" with an initial RMSE of 0.1439.</t>
+  </si>
+  <si>
+    <t>Week 3: Refinement &amp; Experimentation (17 Total Hours)</t>
+  </si>
+  <si>
+    <t>Random Search</t>
+  </si>
+  <si>
+    <t>Define a broad search space for CatBoost and run a RandomizedSearchCV.</t>
+  </si>
+  <si>
+    <t>Optuna Setup</t>
+  </si>
+  <si>
+    <t>Define the Objective Function and search space (learning rate, depth, l2_reg) for Optuna.</t>
+  </si>
+  <si>
+    <t>Running Study</t>
+  </si>
+  <si>
+    <t>Execute the 30-trial Optuna study to minimize RMSE.</t>
+  </si>
+  <si>
+    <t>Hyperparameter Analysis</t>
+  </si>
+  <si>
+    <t>Extract the Best Parameters (e.g., iterations=625, depth=5) from the study results.</t>
+  </si>
+  <si>
+    <t>Validation</t>
+  </si>
+  <si>
+    <t>Re-train the model with optimized parameters and verify the performance jump.</t>
+  </si>
+  <si>
+    <t>Week 4: Polish &amp; Presentation (9 Total Hours)</t>
+  </si>
+  <si>
+    <t>Final Model Run</t>
+  </si>
+  <si>
+    <t>Run the final CatBoost model to confirm the R² Score of 0.8946.</t>
+  </si>
+  <si>
+    <t>Feature Importance</t>
+  </si>
+  <si>
+    <t>Create a bar chart of the Top 10 Clinical Predictors, highlighting pack_years.</t>
+  </si>
+  <si>
+    <t>Error Visualisation</t>
+  </si>
+  <si>
+    <t>Generate the Actual vs. Predicted scatterplot to show model precision.</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>Summarise technical findings, explaining the significance of RMSE 0.1404.</t>
+  </si>
+  <si>
+    <t>Project Wrap-up</t>
+  </si>
+  <si>
+    <t>Final review of the data pipeline and preparation of the final summary sheet.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,6 +389,26 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF303030"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -251,11 +431,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -267,6 +444,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -550,8 +739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L12" sqref="K10:M14"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -575,66 +764,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="K1" s="5" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="K1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <v>0.25</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="3">
         <v>0.75</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="2" t="s">
         <v>44</v>
       </c>
     </row>
@@ -859,42 +1048,42 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="K10" s="5" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="K10" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="L11" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="M11" s="2" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1017,6 +1206,464 @@
     <mergeCell ref="K1:O1"/>
     <mergeCell ref="K10:M10"/>
   </mergeCells>
+  <conditionalFormatting sqref="B3:I7">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:O7">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12:E16">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K12:N14">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A555336-1956-4268-97AC-3D977C8A003E}">
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="78" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="95.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+    </row>
+    <row r="18" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+    </row>
+    <row r="26" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D28" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D29" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D30" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D31" s="7">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A25:D25"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/history.xlsx
+++ b/history.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\AI project\Lung Cancer Prediction Dataset\Lung Cancer Prediction Dataset\Lung-Cancer-Prediction-Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218F0BE9-2CAE-4412-9996-97027F6DCF95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B285E05-DE61-48B9-9F4E-BAD129475244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="1" r:id="rId1"/>
@@ -442,16 +442,16 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -739,8 +739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K10:M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -764,24 +764,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="K1" s="4" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="K1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -1048,18 +1048,18 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="K10" s="4" t="s">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="K10" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
@@ -1206,8 +1206,32 @@
     <mergeCell ref="K1:O1"/>
     <mergeCell ref="K10:M10"/>
   </mergeCells>
+  <conditionalFormatting sqref="A12:E16">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B3:I7">
     <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K12:N14">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1230,30 +1254,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A12:E16">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K12:N14">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1262,110 +1262,110 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A555336-1956-4268-97AC-3D977C8A003E}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="78" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.44140625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="95.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="7"/>
+    <col min="1" max="1" width="4.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="78" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="95.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="5">
         <v>3</v>
       </c>
     </row>
@@ -1377,87 +1377,87 @@
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="4" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="5">
         <v>3</v>
       </c>
     </row>
@@ -1469,87 +1469,87 @@
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="4" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="5">
         <v>4</v>
       </c>
     </row>
@@ -1561,87 +1561,87 @@
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
     </row>
-    <row r="26" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="5" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="5">
         <v>1</v>
       </c>
     </row>
